--- a/docs/Project_Reporting.xlsx
+++ b/docs/Project_Reporting.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product landing" sheetId="2" r:id="rId1"/>
-    <sheet name="Solution Listing" sheetId="1" r:id="rId2"/>
-    <sheet name="Benefits" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Solution Listing" sheetId="1" r:id="rId3"/>
+    <sheet name="Benefits" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
   <si>
     <t>Variations</t>
   </si>
@@ -43,9 +44,6 @@
     <t>Testing ETA</t>
   </si>
   <si>
-    <t>Testing completion</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -61,14 +59,200 @@
     <t>Dev Unit testing</t>
   </si>
   <si>
-    <t>Remaining development effort</t>
+    <t>index-var1</t>
+  </si>
+  <si>
+    <t>index-var3</t>
+  </si>
+  <si>
+    <t>index-var5</t>
+  </si>
+  <si>
+    <t>index-var6</t>
+  </si>
+  <si>
+    <t>index-var9</t>
+  </si>
+  <si>
+    <t>index-var10</t>
+  </si>
+  <si>
+    <t>index-var11</t>
+  </si>
+  <si>
+    <t>Page URL's</t>
+  </si>
+  <si>
+    <t>All Variations testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Variation testing </t>
+  </si>
+  <si>
+    <t>All Variation testing &amp; Bug fixing</t>
+  </si>
+  <si>
+    <t>16hr</t>
+  </si>
+  <si>
+    <t>0hr</t>
+  </si>
+  <si>
+    <t>Note : All 10 urls for product landing with 48 locales wil be tested by tomorrow</t>
+  </si>
+  <si>
+    <t>27 hr</t>
+  </si>
+  <si>
+    <t>Testing Remaining</t>
+  </si>
+  <si>
+    <t>27hr</t>
+  </si>
+  <si>
+    <t>Remaining development effort(To be filled by Chapa)</t>
+  </si>
+  <si>
+    <t>18 hr</t>
+  </si>
+  <si>
+    <t>16 hr</t>
+  </si>
+  <si>
+    <t>8 hr</t>
+  </si>
+  <si>
+    <t>benefit-var1</t>
+  </si>
+  <si>
+    <t>benefit-var2</t>
+  </si>
+  <si>
+    <t>benefit-var3</t>
+  </si>
+  <si>
+    <t>8r</t>
+  </si>
+  <si>
+    <t>10hr</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>index-var14</t>
+  </si>
+  <si>
+    <t>2hr</t>
+  </si>
+  <si>
+    <t>Vidya</t>
+  </si>
+  <si>
+    <t>Saikiran</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>Arpita</t>
+  </si>
+  <si>
+    <t>Ajay</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
+  </si>
+  <si>
+    <t>Aziz</t>
+  </si>
+  <si>
+    <t>Anudeep</t>
+  </si>
+  <si>
+    <t>Saroja</t>
+  </si>
+  <si>
+    <t>Surya</t>
+  </si>
+  <si>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>Deepa</t>
+  </si>
+  <si>
+    <t>Kumari</t>
+  </si>
+  <si>
+    <t>Shreya</t>
+  </si>
+  <si>
+    <t>Mansoor</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Ashok</t>
+  </si>
+  <si>
+    <t>Bhavya</t>
+  </si>
+  <si>
+    <t>Shahrish</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/es_mx/products/collaboration-endpoints/index.html, http://chard.cisco.com:4502/content/es_mx/products/conferencing/index.html,  http://chard.cisco.com:4502/content/es_mx/products/unified-communications/index.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/es_mx/products/customer-collaboration/index.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/es_mx/products/storage-networking/index.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/es_mx/products/ios-nx-os-software/index.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/es_mx/products/security/index.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/es_mx/solutions/data-center-virtualization/index.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/es_mx/solutions/enterprise-networks/index.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/es_mx/solutions/collaboration/index.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/en/us/products/unified-communications/benefit.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/en/us/solutions/data-center-virtualization/benefit.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/en/us/solutions/collaboration/benefit.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/en/us/products/servers-unified-computing/benefit.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/en/us/solutions/service-provider/benefit.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/en/us/products/servers-unified-computing/solution-listing.html,http://chard.cisco.com:4502/content/en/us/products/security/solution-listing.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/en/us/solutions/data-center-virtualization/solution-listing.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +268,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,11 +307,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -113,8 +336,34 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 3" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -393,119 +642,426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="H1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>42331</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>42332</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>42333</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>42334</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>42335</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>42336</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>42337</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>42338</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>42339</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>42340</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C10" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C12" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>42333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>42334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>42335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>42336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>42337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>42338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>42339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>42340</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -513,173 +1069,221 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="H1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42339</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42340</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42341</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42342</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42343</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="H1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>42339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
     </row>
   </sheetData>

--- a/docs/Project_Reporting.xlsx
+++ b/docs/Project_Reporting.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product landing" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Solution Listing" sheetId="1" r:id="rId3"/>
-    <sheet name="Benefits" sheetId="3" r:id="rId4"/>
+    <sheet name="Solution Listing" sheetId="1" r:id="rId2"/>
+    <sheet name="Benefits" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>Variations</t>
   </si>
@@ -144,63 +143,6 @@
   </si>
   <si>
     <t>2hr</t>
-  </si>
-  <si>
-    <t>Vidya</t>
-  </si>
-  <si>
-    <t>Saikiran</t>
-  </si>
-  <si>
-    <t>Ravi</t>
-  </si>
-  <si>
-    <t>Arpita</t>
-  </si>
-  <si>
-    <t>Ajay</t>
-  </si>
-  <si>
-    <t>Priyanka</t>
-  </si>
-  <si>
-    <t>Aziz</t>
-  </si>
-  <si>
-    <t>Anudeep</t>
-  </si>
-  <si>
-    <t>Saroja</t>
-  </si>
-  <si>
-    <t>Surya</t>
-  </si>
-  <si>
-    <t>Divya</t>
-  </si>
-  <si>
-    <t>Deepa</t>
-  </si>
-  <si>
-    <t>Kumari</t>
-  </si>
-  <si>
-    <t>Shreya</t>
-  </si>
-  <si>
-    <t>Mansoor</t>
-  </si>
-  <si>
-    <t>Rohan</t>
-  </si>
-  <si>
-    <t>Ashok</t>
-  </si>
-  <si>
-    <t>Bhavya</t>
-  </si>
-  <si>
-    <t>Shahrish</t>
   </si>
   <si>
     <t>http://chard.cisco.com:4502/content/es_mx/products/collaboration-endpoints/index.html, http://chard.cisco.com:4502/content/es_mx/products/conferencing/index.html,  http://chard.cisco.com:4502/content/es_mx/products/unified-communications/index.html</t>
@@ -705,7 +647,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -721,7 +663,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -737,7 +679,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>34</v>
@@ -755,7 +697,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
@@ -771,7 +713,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>35</v>
@@ -787,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
@@ -818,7 +760,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>30</v>
@@ -846,7 +788,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -956,124 +898,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -1131,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1143,7 +970,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1191,11 +1018,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1251,7 +1078,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1259,7 +1086,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1267,17 +1094,17 @@
         <v>33</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">

--- a/docs/Project_Reporting.xlsx
+++ b/docs/Project_Reporting.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Dec 1\OVWMigration\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVWMigration\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product landing" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
   <si>
     <t>Variations</t>
   </si>
@@ -782,7 +782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
         <v>16</v>
@@ -901,7 +901,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,6 +963,12 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -974,6 +980,12 @@
       </c>
       <c r="D4" t="s">
         <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
